--- a/data/trans_dic/P44A$analisis-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P44A$analisis-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1775306460837716</v>
+        <v>0.1818100877623851</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2449434822036718</v>
+        <v>0.2429820398417699</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0530936150229984</v>
+        <v>0.05982955304197205</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1233968729692778</v>
+        <v>0.1235951165994609</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1837934078392555</v>
+        <v>0.1955730234382063</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0736586901347388</v>
+        <v>0.07717953803748834</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1822210670178136</v>
+        <v>0.1869863599424869</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2566551312086432</v>
+        <v>0.2576004587075769</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08092844951623523</v>
+        <v>0.08053600783595068</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5748466885029223</v>
+        <v>0.6089114139252335</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5612771275747249</v>
+        <v>0.5355382495741817</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2134487955140365</v>
+        <v>0.2177804037339989</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4154653532133834</v>
+        <v>0.421601481842816</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5100561840790059</v>
+        <v>0.525370242854849</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1828265592024695</v>
+        <v>0.184527733822865</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4383832846992108</v>
+        <v>0.4333958490127044</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4951376046876059</v>
+        <v>0.4977083559274731</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1662242571113323</v>
+        <v>0.1732830413778736</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3281151793886546</v>
+        <v>0.3146804483859509</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2187862167726755</v>
+        <v>0.2139830520935938</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1120026983385611</v>
+        <v>0.1182090307286675</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2344363254170312</v>
+        <v>0.2362543564980014</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2328012747985636</v>
+        <v>0.2343407154581391</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1042809067831603</v>
+        <v>0.1070462476427684</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3262215535766255</v>
+        <v>0.3284694751860404</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2707361804460154</v>
+        <v>0.2632836909377948</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.121248918393801</v>
+        <v>0.1197835199316757</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7241035067511018</v>
+        <v>0.7080464645741517</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5231414775800274</v>
+        <v>0.5173493682828898</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2358097584661598</v>
+        <v>0.2311629855288151</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5806245116893847</v>
+        <v>0.5890391128079556</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5956761999410942</v>
+        <v>0.584338114209093</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1993165169110948</v>
+        <v>0.2004106947229662</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6018984093897087</v>
+        <v>0.587855095415505</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4971419341856396</v>
+        <v>0.4958862175308952</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.197224915908687</v>
+        <v>0.1930291116010973</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.3650090814876434</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.07373396189848412</v>
+        <v>0.07373396189848415</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.3163203267643863</v>
@@ -882,7 +882,7 @@
         <v>0.3734862870740541</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.09300234544700633</v>
+        <v>0.09300234544700635</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1725220191355057</v>
+        <v>0.1526199345322641</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2368284026180499</v>
+        <v>0.2342895680953038</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07322055737608628</v>
+        <v>0.06773220851078161</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1329275851587311</v>
+        <v>0.1354322221295793</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1949815753773262</v>
+        <v>0.1910082210111662</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04388788336187216</v>
+        <v>0.04367009451484698</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1941606615799345</v>
+        <v>0.1944540333455606</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2597362564737931</v>
+        <v>0.2615224211620621</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06734891489528479</v>
+        <v>0.06772847634854071</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5188395783419588</v>
+        <v>0.517699093796949</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5527579092409572</v>
+        <v>0.5439977149625513</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1557802201975093</v>
+        <v>0.1566366706428371</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5456087889943744</v>
+        <v>0.5293757168108387</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5642193519309574</v>
+        <v>0.5770401848396468</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1129554291028476</v>
+        <v>0.1104618686296828</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4573611803730545</v>
+        <v>0.4674410450428836</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4957984329647196</v>
+        <v>0.5093327676923476</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1222969586660982</v>
+        <v>0.1233063008476915</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.3157177661245293</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1392198210971644</v>
+        <v>0.1392198210971645</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.2797201051120821</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09401269510070086</v>
+        <v>0.1196285740206028</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1890763110182546</v>
+        <v>0.1543723354158906</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09479855653264602</v>
+        <v>0.09555497406684524</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08129049350957727</v>
+        <v>0.09950013781311789</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05429523685234251</v>
+        <v>0.05495314153692114</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09344774508837861</v>
+        <v>0.08457698296120221</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1236168404918334</v>
+        <v>0.1445726032648011</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1638957985800975</v>
+        <v>0.1736398946774529</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1063016053178013</v>
+        <v>0.1057445261558793</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5029131375237034</v>
+        <v>0.5148394602841379</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5042385060816456</v>
+        <v>0.4755280718608682</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1893554952501887</v>
+        <v>0.1878482453974442</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5794866447354667</v>
+        <v>0.5563701528155177</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4610118449209542</v>
+        <v>0.4958621858527427</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1811963097339168</v>
+        <v>0.1748249260069097</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4423605938596291</v>
+        <v>0.4498835743366833</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4221311129418442</v>
+        <v>0.4288255726859884</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1789523339158704</v>
+        <v>0.1706247701064756</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2814655459626043</v>
+        <v>0.2830395218135471</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2899913938352135</v>
+        <v>0.2924685097121726</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1075811162592918</v>
+        <v>0.1105274369088621</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2163826580787245</v>
+        <v>0.2354014365920429</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2429139789973114</v>
+        <v>0.2578433312882236</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09983307716946908</v>
+        <v>0.0988831809239047</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.278966699221934</v>
+        <v>0.2788090849800882</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2943960194924147</v>
+        <v>0.2988233133034293</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1112143012362446</v>
+        <v>0.1103421887216447</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4778163836278409</v>
+        <v>0.4826284455048975</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4487659447590695</v>
+        <v>0.4369861707275261</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1628972476801618</v>
+        <v>0.1631451832268699</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.410063196192091</v>
+        <v>0.4152939978097556</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4379549935852354</v>
+        <v>0.4451216788160562</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1410718801856793</v>
+        <v>0.141179177746842</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4177179280495245</v>
+        <v>0.4179451930885836</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4108575754515758</v>
+        <v>0.4196215301431835</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.144690291138125</v>
+        <v>0.1455769508399098</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4143</v>
+        <v>4243</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10627</v>
+        <v>10542</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3197</v>
+        <v>3603</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4002</v>
+        <v>4008</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6167</v>
+        <v>6562</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6604</v>
+        <v>6920</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>10162</v>
+        <v>10428</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>19746</v>
+        <v>19819</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>12129</v>
+        <v>12070</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13416</v>
+        <v>14211</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>24350</v>
+        <v>23234</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12853</v>
+        <v>13114</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>13474</v>
+        <v>13673</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>17114</v>
+        <v>17628</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>16391</v>
+        <v>16544</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>24448</v>
+        <v>24170</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>38094</v>
+        <v>38292</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>24912</v>
+        <v>25970</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10712</v>
+        <v>10274</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8562</v>
+        <v>8374</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16421</v>
+        <v>17331</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7420</v>
+        <v>7478</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>7750</v>
+        <v>7802</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>15666</v>
+        <v>16081</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>20976</v>
+        <v>21121</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>19609</v>
+        <v>19069</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>35992</v>
+        <v>35557</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>23641</v>
+        <v>23116</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20473</v>
+        <v>20246</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>34573</v>
+        <v>33891</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>18378</v>
+        <v>18644</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>19831</v>
+        <v>19454</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>29943</v>
+        <v>30107</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>38702</v>
+        <v>37799</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>36006</v>
+        <v>35916</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>58544</v>
+        <v>57299</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5015</v>
+        <v>4436</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9098</v>
+        <v>9001</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13118</v>
+        <v>12134</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3161</v>
+        <v>3221</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5798</v>
+        <v>5680</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6181</v>
+        <v>6150</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>10261</v>
+        <v>10277</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>17702</v>
+        <v>17824</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>21551</v>
+        <v>21672</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15081</v>
+        <v>15048</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21236</v>
+        <v>20899</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27908</v>
+        <v>28062</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>12976</v>
+        <v>12590</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16778</v>
+        <v>17159</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15908</v>
+        <v>15557</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>24172</v>
+        <v>24704</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>33791</v>
+        <v>34713</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>39134</v>
+        <v>39457</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2286</v>
+        <v>2908</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7000</v>
+        <v>5715</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17172</v>
+        <v>17309</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1552</v>
+        <v>1899</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1061</v>
+        <v>1074</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>13409</v>
+        <v>12136</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>5365</v>
+        <v>6274</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>9271</v>
+        <v>9822</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>34509</v>
+        <v>34328</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>12227</v>
+        <v>12517</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>18668</v>
+        <v>17605</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>34301</v>
+        <v>34028</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>11060</v>
+        <v>10619</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>9010</v>
+        <v>9692</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>25999</v>
+        <v>25085</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>19198</v>
+        <v>19524</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>23879</v>
+        <v>24258</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>58094</v>
+        <v>55391</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>30783</v>
+        <v>30955</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>45807</v>
+        <v>46198</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>61012</v>
+        <v>62683</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>23142</v>
+        <v>25176</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>28209</v>
+        <v>29942</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>52333</v>
+        <v>51835</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>60346</v>
+        <v>60311</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>80690</v>
+        <v>81903</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>121372</v>
+        <v>120420</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>52257</v>
+        <v>52783</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>70887</v>
+        <v>69026</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>92383</v>
+        <v>92524</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>43857</v>
+        <v>44416</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>50858</v>
+        <v>51690</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>73951</v>
+        <v>74007</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>90360</v>
+        <v>90409</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>112610</v>
+        <v>115012</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>157905</v>
+        <v>158873</v>
       </c>
     </row>
     <row r="24">
